--- a/results_114_snps/models_coefficients/models_coefficients.xlsx
+++ b/results_114_snps/models_coefficients/models_coefficients.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G457"/>
+  <dimension ref="A1:I457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,6 +393,16 @@
           <t>model_name</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>info_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -422,6 +432,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H2">
+        <v>0.304195</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -451,6 +469,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H3">
+        <v>0.304195</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -480,6 +506,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H4">
+        <v>0.304195</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -509,6 +543,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H5">
+        <v>0.304195</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -538,6 +580,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H6">
+        <v>0.300035</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -567,6 +617,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H7">
+        <v>0.300035</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -596,6 +654,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H8">
+        <v>0.300035</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -625,6 +691,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H9">
+        <v>0.300035</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -654,6 +728,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H10">
+        <v>0.300846</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -683,6 +765,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H11">
+        <v>0.300846</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -712,6 +802,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H12">
+        <v>0.300846</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -741,6 +839,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H13">
+        <v>0.300846</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -770,6 +876,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H14">
+        <v>0.316363</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -799,6 +913,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H15">
+        <v>0.316363</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -828,6 +950,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H16">
+        <v>0.316363</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -857,6 +987,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H17">
+        <v>0.316363</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -886,6 +1024,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H18">
+        <v>0.30525</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -915,6 +1061,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H19">
+        <v>0.30525</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -944,6 +1098,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H20">
+        <v>0.30525</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -973,6 +1135,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H21">
+        <v>0.30525</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1002,6 +1172,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H22">
+        <v>0.300397</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1031,6 +1209,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H23">
+        <v>0.300397</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1060,6 +1246,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H24">
+        <v>0.300397</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1089,6 +1283,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H25">
+        <v>0.300397</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1118,6 +1320,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H26">
+        <v>0.30026</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1147,6 +1357,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H27">
+        <v>0.30026</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1176,6 +1394,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H28">
+        <v>0.30026</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1205,6 +1431,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H29">
+        <v>0.30026</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1234,6 +1468,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H30">
+        <v>0.306719</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1263,6 +1505,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H31">
+        <v>0.306719</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1292,6 +1542,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H32">
+        <v>0.306719</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1321,6 +1579,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H33">
+        <v>0.306719</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1350,6 +1616,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H34">
+        <v>0.302615</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1379,6 +1653,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H35">
+        <v>0.302615</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1408,6 +1690,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H36">
+        <v>0.302615</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1437,6 +1727,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H37">
+        <v>0.302615</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1466,6 +1764,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H38">
+        <v>0.313427</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1495,6 +1801,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H39">
+        <v>0.313427</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1524,6 +1838,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H40">
+        <v>0.313427</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1553,6 +1875,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H41">
+        <v>0.313427</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1582,6 +1912,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H42">
+        <v>0.313434</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1611,6 +1949,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H43">
+        <v>0.313434</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1640,6 +1986,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H44">
+        <v>0.313434</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1669,6 +2023,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H45">
+        <v>0.313434</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1698,6 +2060,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H46">
+        <v>0.320418</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1727,6 +2097,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H47">
+        <v>0.320418</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1756,6 +2134,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H48">
+        <v>0.320418</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1785,6 +2171,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H49">
+        <v>0.320418</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1814,6 +2208,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H50">
+        <v>0.310422</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1843,6 +2245,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H51">
+        <v>0.310422</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1872,6 +2282,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H52">
+        <v>0.310422</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1901,6 +2319,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H53">
+        <v>0.310422</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1930,6 +2356,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H54">
+        <v>0.30828</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1959,6 +2393,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H55">
+        <v>0.30828</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1988,6 +2430,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H56">
+        <v>0.30828</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2017,6 +2467,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H57">
+        <v>0.30828</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2046,6 +2504,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H58">
+        <v>0.300531</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2075,6 +2541,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H59">
+        <v>0.300531</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2104,6 +2578,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H60">
+        <v>0.300531</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2133,6 +2615,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H61">
+        <v>0.300531</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2162,6 +2652,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H62">
+        <v>0.322337</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2191,6 +2689,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H63">
+        <v>0.322337</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2220,6 +2726,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H64">
+        <v>0.322337</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2249,6 +2763,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H65">
+        <v>0.322337</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2278,6 +2800,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H66">
+        <v>0.309457</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2307,6 +2837,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H67">
+        <v>0.309457</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2336,6 +2874,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H68">
+        <v>0.309457</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2365,6 +2911,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H69">
+        <v>0.309457</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2394,6 +2948,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H70">
+        <v>0.300267</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2423,6 +2985,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H71">
+        <v>0.300267</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2452,6 +3022,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H72">
+        <v>0.300267</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2481,6 +3059,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H73">
+        <v>0.300267</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2510,6 +3096,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H74">
+        <v>0.31234</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2539,6 +3133,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H75">
+        <v>0.31234</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2568,6 +3170,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H76">
+        <v>0.31234</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2597,6 +3207,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H77">
+        <v>0.31234</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2626,6 +3244,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H78">
+        <v>0.306033</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2655,6 +3281,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H79">
+        <v>0.306033</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2684,6 +3318,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H80">
+        <v>0.306033</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2713,6 +3355,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H81">
+        <v>0.306033</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2742,6 +3392,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H82">
+        <v>0.316377</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2771,6 +3429,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H83">
+        <v>0.316377</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2800,6 +3466,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H84">
+        <v>0.316377</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2829,6 +3503,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H85">
+        <v>0.316377</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2858,6 +3540,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H86">
+        <v>0.311955</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2887,6 +3577,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H87">
+        <v>0.311955</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2916,6 +3614,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H88">
+        <v>0.311955</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2945,6 +3651,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H89">
+        <v>0.311955</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2974,6 +3688,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H90">
+        <v>0.30496</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3003,6 +3725,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H91">
+        <v>0.30496</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3032,6 +3762,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H92">
+        <v>0.30496</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3061,6 +3799,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H93">
+        <v>0.30496</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3090,6 +3836,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H94">
+        <v>0.312682</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3119,6 +3873,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H95">
+        <v>0.312682</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3148,6 +3910,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H96">
+        <v>0.312682</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3177,6 +3947,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H97">
+        <v>0.312682</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3206,6 +3984,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H98">
+        <v>0.323849</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3235,6 +4021,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H99">
+        <v>0.323849</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3264,6 +4058,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H100">
+        <v>0.323849</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3293,6 +4095,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H101">
+        <v>0.323849</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3322,6 +4132,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H102">
+        <v>0.323851</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3351,6 +4169,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H103">
+        <v>0.323851</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3380,6 +4206,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H104">
+        <v>0.323851</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3409,6 +4243,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H105">
+        <v>0.323851</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3438,6 +4280,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H106">
+        <v>0.318916</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3467,6 +4317,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H107">
+        <v>0.318916</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3496,6 +4354,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H108">
+        <v>0.318916</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3525,6 +4391,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H109">
+        <v>0.318916</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3554,6 +4428,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H110">
+        <v>0.317991</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3583,6 +4465,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H111">
+        <v>0.317991</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3612,6 +4502,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H112">
+        <v>0.317991</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3641,6 +4539,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H113">
+        <v>0.317991</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3670,6 +4576,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H114">
+        <v>0.308466</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3699,6 +4613,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H115">
+        <v>0.308466</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3728,6 +4650,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H116">
+        <v>0.308466</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3757,6 +4687,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H117">
+        <v>0.308466</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3786,6 +4724,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H118">
+        <v>0.323714</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3815,6 +4761,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H119">
+        <v>0.323714</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3844,6 +4798,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H120">
+        <v>0.323714</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3873,6 +4835,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H121">
+        <v>0.323714</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3902,6 +4872,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H122">
+        <v>0.323533</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3931,6 +4909,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H123">
+        <v>0.323533</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3960,6 +4946,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H124">
+        <v>0.323533</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3989,6 +4983,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H125">
+        <v>0.323533</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4018,6 +5020,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H126">
+        <v>0.320877</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4047,6 +5057,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H127">
+        <v>0.320877</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4076,6 +5094,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H128">
+        <v>0.320877</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4105,6 +5131,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H129">
+        <v>0.320877</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4134,6 +5168,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H130">
+        <v>0.314089</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4163,6 +5205,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H131">
+        <v>0.314089</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4192,6 +5242,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H132">
+        <v>0.314089</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4221,6 +5279,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H133">
+        <v>0.314089</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4250,6 +5316,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H134">
+        <v>0.303607</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4279,6 +5353,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H135">
+        <v>0.303607</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4308,6 +5390,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H136">
+        <v>0.303607</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4337,6 +5427,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H137">
+        <v>0.303607</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4366,6 +5464,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H138">
+        <v>0.320477</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4395,6 +5501,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H139">
+        <v>0.320477</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4424,6 +5538,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H140">
+        <v>0.320477</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4453,6 +5575,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H141">
+        <v>0.320477</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4482,6 +5612,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H142">
+        <v>0.30828</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4511,6 +5649,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H143">
+        <v>0.30828</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4540,6 +5686,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H144">
+        <v>0.30828</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4569,6 +5723,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H145">
+        <v>0.30828</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4598,6 +5760,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H146">
+        <v>0.304493</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4627,6 +5797,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H147">
+        <v>0.304493</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4656,6 +5834,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H148">
+        <v>0.304493</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4685,6 +5871,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H149">
+        <v>0.304493</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4714,6 +5908,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H150">
+        <v>0.309153</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4743,6 +5945,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H151">
+        <v>0.309153</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4772,6 +5982,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H152">
+        <v>0.309153</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4801,6 +6019,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H153">
+        <v>0.309153</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4830,6 +6056,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H154">
+        <v>0.304193</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4859,6 +6093,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H155">
+        <v>0.304193</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4888,6 +6130,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H156">
+        <v>0.304193</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4917,6 +6167,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H157">
+        <v>0.304193</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4946,6 +6204,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H158">
+        <v>0.320151</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4975,6 +6241,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H159">
+        <v>0.320151</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5004,6 +6278,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H160">
+        <v>0.320151</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5033,6 +6315,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H161">
+        <v>0.320151</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5062,6 +6352,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H162">
+        <v>0.30447</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5091,6 +6389,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H163">
+        <v>0.30447</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5120,6 +6426,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H164">
+        <v>0.30447</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5149,6 +6463,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H165">
+        <v>0.30447</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5178,6 +6500,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H166">
+        <v>0.309538</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5207,6 +6537,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H167">
+        <v>0.309538</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5236,6 +6574,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H168">
+        <v>0.309538</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5265,6 +6611,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H169">
+        <v>0.309538</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5294,6 +6648,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H170">
+        <v>0.932765</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5323,6 +6685,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H171">
+        <v>0.932765</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5352,6 +6722,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H172">
+        <v>0.932765</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5381,6 +6759,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H173">
+        <v>0.932765</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5410,6 +6796,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H174">
+        <v>0.958154</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5439,6 +6833,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H175">
+        <v>0.958154</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5468,6 +6870,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H176">
+        <v>0.958154</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5497,6 +6907,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H177">
+        <v>0.958154</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5526,6 +6944,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H178">
+        <v>0.316377</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5555,6 +6981,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H179">
+        <v>0.316377</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5584,6 +7018,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H180">
+        <v>0.316377</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5613,6 +7055,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H181">
+        <v>0.316377</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5642,6 +7092,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H182">
+        <v>0.32329</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5671,6 +7129,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H183">
+        <v>0.32329</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5700,6 +7166,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H184">
+        <v>0.32329</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5729,6 +7203,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H185">
+        <v>0.32329</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5758,6 +7240,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H186">
+        <v>0.319851</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5787,6 +7277,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H187">
+        <v>0.319851</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5816,6 +7314,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H188">
+        <v>0.319851</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5845,6 +7351,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H189">
+        <v>0.319851</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5874,6 +7388,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H190">
+        <v>0.323199</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5903,6 +7425,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H191">
+        <v>0.323199</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5932,6 +7462,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H192">
+        <v>0.323199</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5961,6 +7499,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H193">
+        <v>0.323199</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5990,6 +7536,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H194">
+        <v>0.975857</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -6019,6 +7573,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H195">
+        <v>0.975857</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -6048,6 +7610,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H196">
+        <v>0.975857</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -6077,6 +7647,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H197">
+        <v>0.975857</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -6106,6 +7684,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H198">
+        <v>0.948284</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6135,6 +7721,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H199">
+        <v>0.948284</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6164,6 +7758,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H200">
+        <v>0.948284</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6193,6 +7795,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H201">
+        <v>0.948284</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6222,6 +7832,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H202">
+        <v>0.937492</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6251,6 +7869,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H203">
+        <v>0.937492</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6280,6 +7906,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H204">
+        <v>0.937492</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -6309,6 +7943,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H205">
+        <v>0.937492</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -6338,6 +7980,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H206">
+        <v>0.9867899999999999</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6367,6 +8017,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H207">
+        <v>0.9867899999999999</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6396,6 +8054,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H208">
+        <v>0.9867899999999999</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6425,6 +8091,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H209">
+        <v>0.9867899999999999</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6454,6 +8128,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H210">
+        <v>0.958912</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6483,6 +8165,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H211">
+        <v>0.958912</v>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6512,6 +8202,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H212">
+        <v>0.958912</v>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6541,6 +8239,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H213">
+        <v>0.958912</v>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6570,6 +8276,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H214">
+        <v>0.966533</v>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6599,6 +8313,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H215">
+        <v>0.966533</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6628,6 +8350,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H216">
+        <v>0.966533</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6657,6 +8387,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H217">
+        <v>0.966533</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6686,6 +8424,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H218">
+        <v>0.956151</v>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6715,6 +8461,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H219">
+        <v>0.956151</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6744,6 +8498,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H220">
+        <v>0.956151</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6773,6 +8535,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H221">
+        <v>0.956151</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6802,6 +8572,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H222">
+        <v>0.955516</v>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6831,6 +8609,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H223">
+        <v>0.955516</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6860,6 +8646,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H224">
+        <v>0.955516</v>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6889,6 +8683,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H225">
+        <v>0.955516</v>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6918,6 +8720,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H226">
+        <v>0.95152</v>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6947,6 +8757,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H227">
+        <v>0.95152</v>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6976,6 +8794,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H228">
+        <v>0.95152</v>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -7005,6 +8831,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H229">
+        <v>0.95152</v>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -7034,6 +8868,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H230">
+        <v>0.96678</v>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -7063,6 +8905,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H231">
+        <v>0.96678</v>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -7092,6 +8942,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H232">
+        <v>0.96678</v>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -7121,6 +8979,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H233">
+        <v>0.96678</v>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -7150,6 +9016,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H234">
+        <v>0.945993</v>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -7179,6 +9053,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H235">
+        <v>0.945993</v>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -7208,6 +9090,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H236">
+        <v>0.945993</v>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -7237,6 +9127,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H237">
+        <v>0.945993</v>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -7266,6 +9164,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H238">
+        <v>0.998626</v>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -7295,6 +9201,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H239">
+        <v>0.998626</v>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -7324,6 +9238,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H240">
+        <v>0.998626</v>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -7353,6 +9275,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H241">
+        <v>0.998626</v>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -7382,6 +9312,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H242">
+        <v>0.956971</v>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -7411,6 +9349,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H243">
+        <v>0.956971</v>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7440,6 +9386,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H244">
+        <v>0.956971</v>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -7469,6 +9423,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H245">
+        <v>0.956971</v>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7498,6 +9460,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H246">
+        <v>0.969746</v>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7527,6 +9497,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H247">
+        <v>0.969746</v>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -7556,6 +9534,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H248">
+        <v>0.969746</v>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7585,6 +9571,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H249">
+        <v>0.969746</v>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7614,6 +9608,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H250">
+        <v>0.958655</v>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -7643,6 +9645,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H251">
+        <v>0.958655</v>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7672,6 +9682,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H252">
+        <v>0.958655</v>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7701,6 +9719,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H253">
+        <v>0.958655</v>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7730,6 +9756,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H254">
+        <v>0.985222</v>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7759,6 +9793,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H255">
+        <v>0.985222</v>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7788,6 +9830,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H256">
+        <v>0.985222</v>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7817,6 +9867,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H257">
+        <v>0.985222</v>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7846,6 +9904,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H258">
+        <v>0.966143</v>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7875,6 +9941,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H259">
+        <v>0.966143</v>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -7904,6 +9978,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H260">
+        <v>0.966143</v>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -7933,6 +10015,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H261">
+        <v>0.966143</v>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -7962,6 +10052,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H262">
+        <v>0.978822</v>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -7991,6 +10089,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H263">
+        <v>0.978822</v>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -8020,6 +10126,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H264">
+        <v>0.978822</v>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -8049,6 +10163,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H265">
+        <v>0.978822</v>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -8078,6 +10200,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H266">
+        <v>0.955213</v>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -8107,6 +10237,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H267">
+        <v>0.955213</v>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -8136,6 +10274,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H268">
+        <v>0.955213</v>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -8165,6 +10311,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H269">
+        <v>0.955213</v>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -8194,6 +10348,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H270">
+        <v>0.987468</v>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -8223,6 +10385,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H271">
+        <v>0.987468</v>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -8252,6 +10422,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H272">
+        <v>0.987468</v>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -8281,6 +10459,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H273">
+        <v>0.987468</v>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -8310,6 +10496,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H274">
+        <v>0.9983649999999999</v>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -8339,6 +10533,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H275">
+        <v>0.9983649999999999</v>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -8368,6 +10570,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H276">
+        <v>0.9983649999999999</v>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -8397,6 +10607,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H277">
+        <v>0.9983649999999999</v>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -8426,6 +10644,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H278">
+        <v>0.928406</v>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -8455,6 +10681,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H279">
+        <v>0.928406</v>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -8484,6 +10718,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H280">
+        <v>0.928406</v>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -8513,6 +10755,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H281">
+        <v>0.928406</v>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -8542,6 +10792,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H282">
+        <v>0.9745</v>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -8571,6 +10829,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H283">
+        <v>0.9745</v>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -8600,6 +10866,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H284">
+        <v>0.9745</v>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -8629,6 +10903,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H285">
+        <v>0.9745</v>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -8658,6 +10940,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H286">
+        <v>0.95308</v>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -8687,6 +10977,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H287">
+        <v>0.95308</v>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -8716,6 +11014,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H288">
+        <v>0.95308</v>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -8745,6 +11051,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H289">
+        <v>0.95308</v>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -8774,6 +11088,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H290">
+        <v>0.961104</v>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -8803,6 +11125,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H291">
+        <v>0.961104</v>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -8832,6 +11162,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H292">
+        <v>0.961104</v>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -8861,6 +11199,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H293">
+        <v>0.961104</v>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -8890,6 +11236,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H294">
+        <v>0.977622</v>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -8919,6 +11273,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H295">
+        <v>0.977622</v>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -8948,6 +11310,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H296">
+        <v>0.977622</v>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -8977,6 +11347,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H297">
+        <v>0.977622</v>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -9006,6 +11384,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H298">
+        <v>0.967151</v>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -9035,6 +11421,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H299">
+        <v>0.967151</v>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -9064,6 +11458,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H300">
+        <v>0.967151</v>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -9093,6 +11495,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H301">
+        <v>0.967151</v>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -9122,6 +11532,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H302">
+        <v>0.998237</v>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -9151,6 +11569,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H303">
+        <v>0.998237</v>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -9180,6 +11606,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H304">
+        <v>0.998237</v>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -9209,6 +11643,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H305">
+        <v>0.998237</v>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -9238,6 +11680,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H306">
+        <v>0.93421</v>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -9267,6 +11717,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H307">
+        <v>0.93421</v>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -9296,6 +11754,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H308">
+        <v>0.93421</v>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -9325,6 +11791,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H309">
+        <v>0.93421</v>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -9354,6 +11828,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H310">
+        <v>0.96789</v>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -9383,6 +11865,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H311">
+        <v>0.96789</v>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -9412,6 +11902,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H312">
+        <v>0.96789</v>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -9441,6 +11939,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H313">
+        <v>0.96789</v>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -9470,6 +11976,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H314">
+        <v>0.963989</v>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -9499,6 +12013,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H315">
+        <v>0.963989</v>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -9528,6 +12050,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H316">
+        <v>0.963989</v>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -9557,6 +12087,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H317">
+        <v>0.963989</v>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -9586,6 +12124,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H318">
+        <v>0.974741</v>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -9615,6 +12161,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H319">
+        <v>0.974741</v>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -9644,6 +12198,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H320">
+        <v>0.974741</v>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -9673,6 +12235,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H321">
+        <v>0.974741</v>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -9702,6 +12272,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H322">
+        <v>0.9978129999999999</v>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -9731,6 +12309,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H323">
+        <v>0.9978129999999999</v>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -9760,6 +12346,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H324">
+        <v>0.9978129999999999</v>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -9789,6 +12383,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H325">
+        <v>0.9978129999999999</v>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -9818,6 +12420,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H326">
+        <v>0.9889829999999999</v>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -9847,6 +12457,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H327">
+        <v>0.9889829999999999</v>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -9876,6 +12494,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H328">
+        <v>0.9889829999999999</v>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -9905,6 +12531,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H329">
+        <v>0.9889829999999999</v>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -9934,6 +12568,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H330">
+        <v>0.936319</v>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -9963,6 +12605,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H331">
+        <v>0.936319</v>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -9992,6 +12642,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H332">
+        <v>0.936319</v>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -10021,6 +12679,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H333">
+        <v>0.936319</v>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -10050,6 +12716,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H334">
+        <v>0.92885</v>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -10079,6 +12753,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H335">
+        <v>0.92885</v>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -10108,6 +12790,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H336">
+        <v>0.92885</v>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -10137,6 +12827,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H337">
+        <v>0.92885</v>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -10166,6 +12864,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H338">
+        <v>0.963498</v>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -10195,6 +12901,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H339">
+        <v>0.963498</v>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -10224,6 +12938,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H340">
+        <v>0.963498</v>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -10253,6 +12975,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H341">
+        <v>0.963498</v>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -10282,6 +13012,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H342">
+        <v>0.96592</v>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -10311,6 +13049,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H343">
+        <v>0.96592</v>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -10340,6 +13086,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H344">
+        <v>0.96592</v>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -10369,6 +13123,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H345">
+        <v>0.96592</v>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -10398,6 +13160,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H346">
+        <v>0.993137</v>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -10427,6 +13197,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H347">
+        <v>0.993137</v>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -10456,6 +13234,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H348">
+        <v>0.993137</v>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -10485,6 +13271,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H349">
+        <v>0.993137</v>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -10514,6 +13308,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H350">
+        <v>0.949344</v>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -10543,6 +13345,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H351">
+        <v>0.949344</v>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -10572,6 +13382,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H352">
+        <v>0.949344</v>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -10601,6 +13419,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H353">
+        <v>0.949344</v>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -10630,6 +13456,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H354">
+        <v>0.952361</v>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -10659,6 +13493,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H355">
+        <v>0.952361</v>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -10688,6 +13530,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H356">
+        <v>0.952361</v>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -10717,6 +13567,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H357">
+        <v>0.952361</v>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -10746,6 +13604,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H358">
+        <v>0.976677</v>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -10775,6 +13641,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H359">
+        <v>0.976677</v>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -10804,6 +13678,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H360">
+        <v>0.976677</v>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -10833,6 +13715,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H361">
+        <v>0.976677</v>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -10862,6 +13752,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H362">
+        <v>0.984877</v>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -10891,6 +13789,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H363">
+        <v>0.984877</v>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -10920,6 +13826,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H364">
+        <v>0.984877</v>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -10949,6 +13863,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H365">
+        <v>0.984877</v>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -10978,6 +13900,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H366">
+        <v>0.996591</v>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -11007,6 +13937,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H367">
+        <v>0.996591</v>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -11036,6 +13974,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H368">
+        <v>0.996591</v>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -11065,6 +14011,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H369">
+        <v>0.996591</v>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -11094,6 +14048,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H370">
+        <v>0.950919</v>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -11123,6 +14085,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H371">
+        <v>0.950919</v>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -11152,6 +14122,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H372">
+        <v>0.950919</v>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -11181,6 +14159,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H373">
+        <v>0.950919</v>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -11210,6 +14196,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H374">
+        <v>0.946627</v>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -11239,6 +14233,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H375">
+        <v>0.946627</v>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -11268,6 +14270,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H376">
+        <v>0.946627</v>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -11297,6 +14307,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H377">
+        <v>0.946627</v>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -11326,6 +14344,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H378">
+        <v>0.9810179999999999</v>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -11355,6 +14381,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H379">
+        <v>0.9810179999999999</v>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -11384,6 +14418,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H380">
+        <v>0.9810179999999999</v>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -11413,6 +14455,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H381">
+        <v>0.9810179999999999</v>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -11442,6 +14492,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H382">
+        <v>0.963856</v>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -11471,6 +14529,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H383">
+        <v>0.963856</v>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -11500,6 +14566,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H384">
+        <v>0.963856</v>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -11529,6 +14603,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H385">
+        <v>0.963856</v>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -11558,6 +14640,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H386">
+        <v>0.9826510000000001</v>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -11587,6 +14677,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H387">
+        <v>0.9826510000000001</v>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -11616,6 +14714,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H388">
+        <v>0.9826510000000001</v>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -11645,6 +14751,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H389">
+        <v>0.9826510000000001</v>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -11674,6 +14788,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H390">
+        <v>0.92411</v>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -11703,6 +14825,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H391">
+        <v>0.92411</v>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -11732,6 +14862,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H392">
+        <v>0.92411</v>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -11761,6 +14899,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H393">
+        <v>0.92411</v>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -11790,6 +14936,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H394">
+        <v>0.96554</v>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -11819,6 +14973,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H395">
+        <v>0.96554</v>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -11848,6 +15010,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H396">
+        <v>0.96554</v>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -11877,6 +15047,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H397">
+        <v>0.96554</v>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -11906,6 +15084,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H398">
+        <v>0.990433</v>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -11935,6 +15121,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H399">
+        <v>0.990433</v>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -11964,6 +15158,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H400">
+        <v>0.990433</v>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -11993,6 +15195,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H401">
+        <v>0.990433</v>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -12022,6 +15232,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H402">
+        <v>0.922121</v>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -12051,6 +15269,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H403">
+        <v>0.922121</v>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -12080,6 +15306,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H404">
+        <v>0.922121</v>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -12109,6 +15343,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H405">
+        <v>0.922121</v>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -12138,6 +15380,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H406">
+        <v>0.967594</v>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -12167,6 +15417,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H407">
+        <v>0.967594</v>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -12196,6 +15454,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H408">
+        <v>0.967594</v>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -12225,6 +15491,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H409">
+        <v>0.967594</v>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -12254,6 +15528,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H410">
+        <v>0.9514860000000001</v>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -12283,6 +15565,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H411">
+        <v>0.9514860000000001</v>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -12312,6 +15602,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H412">
+        <v>0.9514860000000001</v>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -12341,6 +15639,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H413">
+        <v>0.9514860000000001</v>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -12370,6 +15676,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H414">
+        <v>0.976674</v>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -12399,6 +15713,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H415">
+        <v>0.976674</v>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -12428,6 +15750,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H416">
+        <v>0.976674</v>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -12457,6 +15787,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H417">
+        <v>0.976674</v>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -12486,6 +15824,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H418">
+        <v>0.994401</v>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -12515,6 +15861,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H419">
+        <v>0.994401</v>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -12544,6 +15898,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H420">
+        <v>0.994401</v>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -12573,6 +15935,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H421">
+        <v>0.994401</v>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -12602,6 +15972,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H422">
+        <v>0.9611730000000001</v>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -12631,6 +16009,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H423">
+        <v>0.9611730000000001</v>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -12660,6 +16046,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H424">
+        <v>0.9611730000000001</v>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -12689,6 +16083,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H425">
+        <v>0.9611730000000001</v>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -12718,6 +16120,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H426">
+        <v>0.958507</v>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -12747,6 +16157,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H427">
+        <v>0.958507</v>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -12776,6 +16194,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H428">
+        <v>0.958507</v>
+      </c>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -12805,6 +16231,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H429">
+        <v>0.958507</v>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -12834,6 +16268,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H430">
+        <v>0.966266</v>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -12863,6 +16305,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H431">
+        <v>0.966266</v>
+      </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -12892,6 +16342,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H432">
+        <v>0.966266</v>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -12921,6 +16379,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H433">
+        <v>0.966266</v>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -12950,6 +16416,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H434">
+        <v>0.964464</v>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -12979,6 +16453,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H435">
+        <v>0.964464</v>
+      </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -13008,6 +16490,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H436">
+        <v>0.964464</v>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -13037,6 +16527,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H437">
+        <v>0.964464</v>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -13066,6 +16564,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H438">
+        <v>0.978399</v>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -13095,6 +16601,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H439">
+        <v>0.978399</v>
+      </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -13124,6 +16638,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H440">
+        <v>0.978399</v>
+      </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -13153,6 +16675,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H441">
+        <v>0.978399</v>
+      </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -13182,6 +16712,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H442">
+        <v>0.976127</v>
+      </c>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -13211,6 +16749,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H443">
+        <v>0.976127</v>
+      </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -13240,6 +16786,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H444">
+        <v>0.976127</v>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -13269,6 +16823,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H445">
+        <v>0.976127</v>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -13298,6 +16860,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H446">
+        <v>0.98612</v>
+      </c>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -13327,6 +16897,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H447">
+        <v>0.98612</v>
+      </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -13356,6 +16934,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H448">
+        <v>0.98612</v>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -13385,6 +16971,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H449">
+        <v>0.98612</v>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -13414,6 +17008,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H450">
+        <v>0.954417</v>
+      </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -13443,6 +17045,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H451">
+        <v>0.954417</v>
+      </c>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -13472,6 +17082,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H452">
+        <v>0.954417</v>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -13501,6 +17119,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H453">
+        <v>0.954417</v>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -13530,6 +17156,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H454">
+        <v>0.987544</v>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -13559,6 +17193,14 @@
           <t>plus</t>
         </is>
       </c>
+      <c r="H455">
+        <v>0.987544</v>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -13588,6 +17230,14 @@
           <t>minus</t>
         </is>
       </c>
+      <c r="H456">
+        <v>0.987544</v>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -13615,6 +17265,14 @@
       <c r="G457" t="inlineStr">
         <is>
           <t>minus</t>
+        </is>
+      </c>
+      <c r="H457">
+        <v>0.987544</v>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>high</t>
         </is>
       </c>
     </row>
